--- a/py/direction_sheetV5.xlsx
+++ b/py/direction_sheetV5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF96864-DA04-4EE8-B37F-1A6DD88A32DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61E32A2-FFEC-4E5B-B658-B5486067E226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,6 @@
   <si>
     <t>Lượng kéo
 (cm)</t>
-  </si>
-  <si>
-    <t>Độ nhám
-(RzJIS)</t>
   </si>
   <si>
     <t>Thời gian
@@ -530,6 +526,10 @@
   </si>
   <si>
     <t>Cắt đầu đuôi</t>
+  </si>
+  <si>
+    <t>Độ nhám
+(Rz)</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
     <numFmt numFmtId="184" formatCode="#.0&quot;m&quot;"/>
     <numFmt numFmtId="185" formatCode="0.00&quot;%&quot;"/>
     <numFmt numFmtId="186" formatCode="#&quot;đoạn&quot;"/>
-    <numFmt numFmtId="188" formatCode="#####"/>
+    <numFmt numFmtId="187" formatCode="#####"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2484,43 +2484,512 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2535,482 +3004,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3518,107 +3518,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B1" s="299" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="300"/>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="300"/>
-      <c r="S1" s="300"/>
-      <c r="T1" s="301"/>
-      <c r="U1" s="302"/>
+      <c r="B1" s="302" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="304"/>
+      <c r="U1" s="305"/>
     </row>
     <row r="2" spans="2:28" ht="28.5" customHeight="1">
       <c r="B2" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="319">
+        <v>135</v>
+      </c>
+      <c r="C2" s="320">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="D2" s="319"/>
+      <c r="D2" s="320"/>
       <c r="E2" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="396">
+      <c r="F2" s="238">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G2" s="396"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="381" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="392">
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="226" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="228">
         <f>input!D39</f>
         <v>0</v>
       </c>
       <c r="K2" s="112"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="333" t="s">
+      <c r="L2" s="306"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="334"/>
-      <c r="P2" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="231" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="232"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="270" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
+      <c r="T2" s="392" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="393"/>
     </row>
     <row r="3" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
       <c r="B3" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="320">
+      <c r="C3" s="240">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="320"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="320">
+      <c r="F3" s="240">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="320"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="391"/>
-      <c r="J3" s="393"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="229"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="233" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="335"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="272" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="286"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="394"/>
+      <c r="R3" s="394"/>
+      <c r="S3" s="394"/>
       <c r="T3" s="220" t="s">
-        <v>147</v>
-      </c>
-      <c r="U3" s="399">
+        <v>146</v>
+      </c>
+      <c r="U3" s="224">
         <f>input!D59</f>
         <v>0</v>
       </c>
@@ -3629,39 +3629,39 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="158"/>
-      <c r="G4" s="347" t="s">
+      <c r="G4" s="331" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="348"/>
-      <c r="I4" s="349"/>
-      <c r="J4" s="350"/>
-      <c r="K4" s="351" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="349"/>
-      <c r="M4" s="350"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="334"/>
       <c r="N4" s="151" t="s">
         <v>79</v>
       </c>
       <c r="O4" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="235" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
+      <c r="P4" s="270" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="327"/>
+      <c r="R4" s="327"/>
+      <c r="S4" s="327"/>
       <c r="T4" s="220" t="s">
-        <v>148</v>
-      </c>
-      <c r="U4" s="399">
+        <v>147</v>
+      </c>
+      <c r="U4" s="224">
         <f>input!D60</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="28.5" customHeight="1">
-      <c r="B5" s="330" t="s">
+      <c r="B5" s="255" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="321">
@@ -3682,33 +3682,33 @@
         <v>88</v>
       </c>
       <c r="J5" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="315" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="252"/>
-      <c r="O5" s="254"/>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
+      <c r="M5" s="316" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="338"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="395"/>
+      <c r="Q5" s="396"/>
+      <c r="R5" s="396"/>
+      <c r="S5" s="396"/>
       <c r="T5" s="220" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" s="399">
+        <v>148</v>
+      </c>
+      <c r="U5" s="224">
         <f>input!D61</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="331"/>
+      <c r="B6" s="256"/>
       <c r="C6" s="324"/>
       <c r="D6" s="325"/>
       <c r="E6" s="326"/>
@@ -3733,31 +3733,31 @@
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="316"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="229"/>
-      <c r="S6" s="229"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="339"/>
+      <c r="O6" s="341"/>
+      <c r="P6" s="355"/>
+      <c r="Q6" s="389"/>
+      <c r="R6" s="389"/>
+      <c r="S6" s="389"/>
       <c r="T6" s="220" t="s">
-        <v>150</v>
-      </c>
-      <c r="U6" s="399">
+        <v>149</v>
+      </c>
+      <c r="U6" s="224">
         <f>input!D62</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B7" s="305" t="s">
+      <c r="B7" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="307">
+      <c r="C7" s="308">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="308"/>
-      <c r="E7" s="309"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="310"/>
       <c r="F7" s="111"/>
       <c r="G7" s="140">
         <v>6063</v>
@@ -3770,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="162" t="s">
         <v>97</v>
@@ -3778,38 +3778,38 @@
       <c r="L7" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="317">
+      <c r="M7" s="318">
         <f>input!K11</f>
         <v>0</v>
       </c>
-      <c r="N7" s="256" t="s">
-        <v>133</v>
-      </c>
-      <c r="O7" s="257"/>
-      <c r="P7" s="313" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="239" t="s">
-        <v>146</v>
-      </c>
-      <c r="S7" s="240"/>
+      <c r="N7" s="342" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="343"/>
+      <c r="P7" s="314" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="315"/>
+      <c r="R7" s="397" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" s="398"/>
       <c r="T7" s="220" t="s">
-        <v>151</v>
-      </c>
-      <c r="U7" s="399">
+        <v>150</v>
+      </c>
+      <c r="U7" s="224">
         <f>input!D63</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="306"/>
-      <c r="C8" s="310"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="312"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="313"/>
       <c r="F8" s="111"/>
       <c r="G8" s="175" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="141" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
@@ -3828,21 +3828,21 @@
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="M8" s="318"/>
-      <c r="N8" s="258"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="327" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="344" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" s="241"/>
-      <c r="S8" s="242"/>
+      <c r="M8" s="319"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="328" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="295" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8" s="298"/>
+      <c r="S8" s="299"/>
       <c r="T8" s="220" t="s">
-        <v>152</v>
-      </c>
-      <c r="U8" s="399">
+        <v>151</v>
+      </c>
+      <c r="U8" s="224">
         <f>input!D64</f>
         <v>0</v>
       </c>
@@ -3853,30 +3853,30 @@
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="281" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="282"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="262" t="str">
+      <c r="G9" s="369" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="370"/>
+      <c r="I9" s="371"/>
+      <c r="J9" s="348" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="K9" s="290" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="291"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="259"/>
-      <c r="P9" s="328"/>
-      <c r="Q9" s="345"/>
-      <c r="R9" s="243"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="230" t="s">
-        <v>153</v>
-      </c>
-      <c r="U9" s="400">
+      <c r="K9" s="378" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="379"/>
+      <c r="M9" s="384"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="399"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="390" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" s="391">
         <f>input!D65</f>
         <v>0</v>
       </c>
@@ -3887,128 +3887,128 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="284"/>
-      <c r="H10" s="285"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="292"/>
-      <c r="L10" s="293"/>
-      <c r="M10" s="297"/>
-      <c r="N10" s="260"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="346"/>
-      <c r="R10" s="245"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="230"/>
-      <c r="U10" s="400"/>
+      <c r="G10" s="372"/>
+      <c r="H10" s="373"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="349"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="381"/>
+      <c r="M10" s="385"/>
+      <c r="N10" s="346"/>
+      <c r="O10" s="347"/>
+      <c r="P10" s="330"/>
+      <c r="Q10" s="297"/>
+      <c r="R10" s="400"/>
+      <c r="S10" s="401"/>
+      <c r="T10" s="390"/>
+      <c r="U10" s="391"/>
     </row>
     <row r="11" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="378" t="str">
+      <c r="C11" s="257" t="str">
         <f>IF(C13=0,"","DR"&amp;MID(C13,2,4))</f>
         <v/>
       </c>
-      <c r="D11" s="378"/>
-      <c r="E11" s="379"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="258"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="295"/>
-      <c r="M11" s="298"/>
-      <c r="N11" s="226"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="338"/>
-      <c r="Q11" s="341" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11" s="224" t="s">
+      <c r="G11" s="375"/>
+      <c r="H11" s="376"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="350"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="383"/>
+      <c r="M11" s="386"/>
+      <c r="N11" s="351"/>
+      <c r="O11" s="352"/>
+      <c r="P11" s="289"/>
+      <c r="Q11" s="292" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="S11" s="225"/>
+      <c r="S11" s="387"/>
       <c r="T11" s="220" t="s">
-        <v>154</v>
-      </c>
-      <c r="U11" s="399">
+        <v>153</v>
+      </c>
+      <c r="U11" s="224">
         <f>input!D66</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1">
-      <c r="B12" s="331"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="249"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="260"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="269">
+      <c r="G12" s="357">
         <f>input!D16</f>
         <v>0</v>
       </c>
-      <c r="H12" s="270"/>
-      <c r="I12" s="271"/>
-      <c r="J12" s="275">
+      <c r="H12" s="358"/>
+      <c r="I12" s="359"/>
+      <c r="J12" s="363">
         <f>input!D38</f>
         <v>0</v>
       </c>
-      <c r="K12" s="276"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="339"/>
-      <c r="Q12" s="342"/>
-      <c r="R12" s="226"/>
-      <c r="S12" s="227"/>
+      <c r="K12" s="364"/>
+      <c r="L12" s="364"/>
+      <c r="M12" s="365"/>
+      <c r="N12" s="353"/>
+      <c r="O12" s="354"/>
+      <c r="P12" s="290"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="351"/>
+      <c r="S12" s="388"/>
       <c r="T12" s="220" t="s">
-        <v>155</v>
-      </c>
-      <c r="U12" s="399">
+        <v>154</v>
+      </c>
+      <c r="U12" s="224">
         <f>input!D67</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B13" s="305" t="s">
+      <c r="B13" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="248">
+      <c r="C13" s="259">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="D13" s="248"/>
-      <c r="E13" s="249"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="260"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="272"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="274"/>
-      <c r="J13" s="278"/>
-      <c r="K13" s="279"/>
-      <c r="L13" s="279"/>
-      <c r="M13" s="280"/>
-      <c r="N13" s="228"/>
-      <c r="O13" s="268"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="343"/>
-      <c r="R13" s="228"/>
-      <c r="S13" s="229"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="361"/>
+      <c r="I13" s="362"/>
+      <c r="J13" s="366"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="367"/>
+      <c r="M13" s="368"/>
+      <c r="N13" s="355"/>
+      <c r="O13" s="356"/>
+      <c r="P13" s="291"/>
+      <c r="Q13" s="294"/>
+      <c r="R13" s="355"/>
+      <c r="S13" s="389"/>
       <c r="T13" s="221" t="s">
-        <v>156</v>
-      </c>
-      <c r="U13" s="401">
+        <v>155</v>
+      </c>
+      <c r="U13" s="225">
         <f>input!D68</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B14" s="380"/>
-      <c r="C14" s="250"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="336"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="337"/>
       <c r="F14" s="34"/>
       <c r="G14" s="110" t="s">
         <v>5</v>
@@ -4020,17 +4020,17 @@
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="241" t="s">
+      <c r="O14" s="298" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="247"/>
-      <c r="Q14" s="241" t="s">
-        <v>135</v>
-      </c>
-      <c r="R14" s="242"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="244"/>
-      <c r="U14" s="247"/>
+      <c r="P14" s="301"/>
+      <c r="Q14" s="298" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="299"/>
+      <c r="S14" s="300"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="301"/>
     </row>
     <row r="15" spans="2:28" ht="52.5" customHeight="1" thickBot="1">
       <c r="B15" s="219" t="s">
@@ -4039,10 +4039,10 @@
       <c r="C15" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="385" t="s">
+      <c r="D15" s="265" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="385"/>
+      <c r="E15" s="265"/>
       <c r="F15" s="194"/>
       <c r="G15" s="153" t="s">
         <v>7</v>
@@ -4057,22 +4057,22 @@
         <v>113</v>
       </c>
       <c r="K15" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="154" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="155" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="154" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="163" t="s">
+      <c r="P15" s="154" t="s">
         <v>115</v>
-      </c>
-      <c r="P15" s="154" t="s">
-        <v>116</v>
       </c>
       <c r="Q15" s="156">
         <v>302</v>
@@ -4093,8 +4093,8 @@
     <row r="16" spans="2:28" ht="35.1" customHeight="1">
       <c r="B16" s="199"/>
       <c r="C16" s="115"/>
-      <c r="D16" s="394"/>
-      <c r="E16" s="395"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="231"/>
       <c r="F16" s="34"/>
       <c r="G16" s="109">
         <v>1</v>
@@ -4107,7 +4107,7 @@
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="182"/>
@@ -4125,8 +4125,8 @@
     <row r="17" spans="2:31" ht="35.1" customHeight="1">
       <c r="B17" s="187"/>
       <c r="C17" s="197"/>
-      <c r="D17" s="383"/>
-      <c r="E17" s="384"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="264"/>
       <c r="F17" s="34"/>
       <c r="G17" s="109">
         <v>2</v>
@@ -4139,7 +4139,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="182"/>
@@ -4157,8 +4157,8 @@
     <row r="18" spans="2:31" ht="35.1" customHeight="1">
       <c r="B18" s="200"/>
       <c r="C18" s="182"/>
-      <c r="D18" s="355"/>
-      <c r="E18" s="356"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="237"/>
       <c r="F18" s="34"/>
       <c r="G18" s="109">
         <v>3</v>
@@ -4171,7 +4171,7 @@
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="182"/>
@@ -4192,8 +4192,8 @@
     <row r="19" spans="2:31" ht="35.1" customHeight="1">
       <c r="B19" s="187"/>
       <c r="C19" s="182"/>
-      <c r="D19" s="355"/>
-      <c r="E19" s="356"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237"/>
       <c r="F19" s="34"/>
       <c r="G19" s="109">
         <v>4</v>
@@ -4208,7 +4208,7 @@
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>12</v>
@@ -4219,10 +4219,10 @@
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="336"/>
-      <c r="Y19" s="304"/>
-      <c r="Z19" s="304"/>
-      <c r="AA19" s="304"/>
+      <c r="X19" s="287"/>
+      <c r="Y19" s="283"/>
+      <c r="Z19" s="283"/>
+      <c r="AA19" s="283"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="34"/>
@@ -4231,8 +4231,8 @@
     <row r="20" spans="2:31" ht="35.1" customHeight="1">
       <c r="B20" s="200"/>
       <c r="C20" s="182"/>
-      <c r="D20" s="355"/>
-      <c r="E20" s="356"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="237"/>
       <c r="F20" s="34"/>
       <c r="G20" s="109">
         <v>5</v>
@@ -4245,7 +4245,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="182"/>
@@ -4256,8 +4256,8 @@
       <c r="W20" s="34"/>
       <c r="X20" s="106"/>
       <c r="Y20" s="33"/>
-      <c r="Z20" s="337"/>
-      <c r="AA20" s="304"/>
+      <c r="Z20" s="288"/>
+      <c r="AA20" s="283"/>
       <c r="AB20" s="34"/>
       <c r="AC20" s="34"/>
       <c r="AD20" s="34"/>
@@ -4266,8 +4266,8 @@
     <row r="21" spans="2:31" ht="35.1" customHeight="1">
       <c r="B21" s="187"/>
       <c r="C21" s="182"/>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="237"/>
       <c r="F21" s="34"/>
       <c r="G21" s="109">
         <v>6</v>
@@ -4280,7 +4280,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="182"/>
@@ -4292,8 +4292,8 @@
       <c r="W21" s="34"/>
       <c r="X21" s="106"/>
       <c r="Y21" s="107"/>
-      <c r="Z21" s="332"/>
-      <c r="AA21" s="304"/>
+      <c r="Z21" s="282"/>
+      <c r="AA21" s="283"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
@@ -4302,8 +4302,8 @@
     <row r="22" spans="2:31" ht="35.1" customHeight="1">
       <c r="B22" s="200"/>
       <c r="C22" s="182"/>
-      <c r="D22" s="355"/>
-      <c r="E22" s="356"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="237"/>
       <c r="F22" s="34"/>
       <c r="G22" s="109">
         <v>7</v>
@@ -4316,7 +4316,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="183"/>
       <c r="O22" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="182"/>
@@ -4328,8 +4328,8 @@
       <c r="W22" s="34"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="304"/>
-      <c r="AA22" s="304"/>
+      <c r="Z22" s="283"/>
+      <c r="AA22" s="283"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
       <c r="AD22" s="34"/>
@@ -4338,8 +4338,8 @@
     <row r="23" spans="2:31" ht="35.1" customHeight="1">
       <c r="B23" s="187"/>
       <c r="C23" s="182"/>
-      <c r="D23" s="355"/>
-      <c r="E23" s="356"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="237"/>
       <c r="F23" s="34"/>
       <c r="G23" s="109">
         <v>8</v>
@@ -4352,7 +4352,7 @@
       <c r="M23" s="182"/>
       <c r="N23" s="183"/>
       <c r="O23" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P23" s="182"/>
       <c r="Q23" s="182"/>
@@ -4374,8 +4374,8 @@
     <row r="24" spans="2:31" ht="35.1" customHeight="1">
       <c r="B24" s="200"/>
       <c r="C24" s="182"/>
-      <c r="D24" s="355"/>
-      <c r="E24" s="356"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="237"/>
       <c r="F24" s="34"/>
       <c r="G24" s="109">
         <v>9</v>
@@ -4388,7 +4388,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="183"/>
       <c r="O24" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="182"/>
@@ -4410,8 +4410,8 @@
     <row r="25" spans="2:31" ht="35.1" customHeight="1">
       <c r="B25" s="187"/>
       <c r="C25" s="128"/>
-      <c r="D25" s="363"/>
-      <c r="E25" s="364"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="281"/>
       <c r="F25" s="34"/>
       <c r="G25" s="109">
         <v>10</v>
@@ -4424,7 +4424,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="183"/>
       <c r="O25" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P25" s="39"/>
       <c r="Q25" s="182"/>
@@ -4438,8 +4438,8 @@
     <row r="26" spans="2:31" ht="35.1" customHeight="1">
       <c r="B26" s="200"/>
       <c r="C26" s="182"/>
-      <c r="D26" s="355"/>
-      <c r="E26" s="356"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="237"/>
       <c r="F26" s="34"/>
       <c r="G26" s="109">
         <v>11</v>
@@ -4452,7 +4452,7 @@
       <c r="M26" s="182"/>
       <c r="N26" s="183"/>
       <c r="O26" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P26" s="182"/>
       <c r="Q26" s="182"/>
@@ -4466,8 +4466,8 @@
     <row r="27" spans="2:31" ht="35.1" customHeight="1">
       <c r="B27" s="187"/>
       <c r="C27" s="182"/>
-      <c r="D27" s="355"/>
-      <c r="E27" s="356"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="237"/>
       <c r="F27" s="34"/>
       <c r="G27" s="109">
         <v>12</v>
@@ -4480,7 +4480,7 @@
       <c r="M27" s="182"/>
       <c r="N27" s="183"/>
       <c r="O27" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P27" s="182"/>
       <c r="Q27" s="182"/>
@@ -4494,8 +4494,8 @@
     <row r="28" spans="2:31" ht="35.1" customHeight="1">
       <c r="B28" s="200"/>
       <c r="C28" s="182"/>
-      <c r="D28" s="355"/>
-      <c r="E28" s="356"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="237"/>
       <c r="F28" s="34"/>
       <c r="G28" s="109">
         <v>13</v>
@@ -4508,7 +4508,7 @@
       <c r="M28" s="182"/>
       <c r="N28" s="183"/>
       <c r="O28" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P28" s="182"/>
       <c r="Q28" s="182"/>
@@ -4522,8 +4522,8 @@
     <row r="29" spans="2:31" ht="35.1" customHeight="1">
       <c r="B29" s="187"/>
       <c r="C29" s="182"/>
-      <c r="D29" s="355"/>
-      <c r="E29" s="356"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="237"/>
       <c r="F29" s="34"/>
       <c r="G29" s="109">
         <v>14</v>
@@ -4536,7 +4536,7 @@
       <c r="M29" s="182"/>
       <c r="N29" s="183"/>
       <c r="O29" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P29" s="182"/>
       <c r="Q29" s="182"/>
@@ -4550,8 +4550,8 @@
     <row r="30" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
       <c r="B30" s="203"/>
       <c r="C30" s="186"/>
-      <c r="D30" s="386"/>
-      <c r="E30" s="387"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="34"/>
       <c r="G30" s="109">
         <v>15</v>
@@ -4564,7 +4564,7 @@
       <c r="M30" s="182"/>
       <c r="N30" s="183"/>
       <c r="O30" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P30" s="182"/>
       <c r="Q30" s="182"/>
@@ -4594,7 +4594,7 @@
       <c r="M31" s="182"/>
       <c r="N31" s="183"/>
       <c r="O31" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P31" s="182"/>
       <c r="Q31" s="182"/>
@@ -4606,14 +4606,14 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:31" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="357"/>
-      <c r="D32" s="224" t="s">
+      <c r="C32" s="277"/>
+      <c r="D32" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="357"/>
+      <c r="E32" s="277"/>
       <c r="F32" s="34"/>
       <c r="G32" s="109">
         <v>17</v>
@@ -4626,7 +4626,7 @@
       <c r="M32" s="182"/>
       <c r="N32" s="183"/>
       <c r="O32" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P32" s="182"/>
       <c r="Q32" s="182"/>
@@ -4663,7 +4663,7 @@
       <c r="M33" s="182"/>
       <c r="N33" s="183"/>
       <c r="O33" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P33" s="182"/>
       <c r="Q33" s="182"/>
@@ -4698,7 +4698,7 @@
       <c r="M34" s="182"/>
       <c r="N34" s="183"/>
       <c r="O34" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P34" s="182"/>
       <c r="Q34" s="182"/>
@@ -4733,7 +4733,7 @@
       <c r="M35" s="182"/>
       <c r="N35" s="183"/>
       <c r="O35" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P35" s="182"/>
       <c r="Q35" s="182"/>
@@ -4766,7 +4766,7 @@
       <c r="M36" s="182"/>
       <c r="N36" s="183"/>
       <c r="O36" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P36" s="182"/>
       <c r="Q36" s="182"/>
@@ -4799,7 +4799,7 @@
       <c r="M37" s="182"/>
       <c r="N37" s="183"/>
       <c r="O37" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P37" s="182"/>
       <c r="Q37" s="182"/>
@@ -4832,7 +4832,7 @@
       <c r="M38" s="182"/>
       <c r="N38" s="183"/>
       <c r="O38" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P38" s="182"/>
       <c r="Q38" s="182"/>
@@ -4865,7 +4865,7 @@
       <c r="M39" s="182"/>
       <c r="N39" s="183"/>
       <c r="O39" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P39" s="182"/>
       <c r="Q39" s="182"/>
@@ -4898,7 +4898,7 @@
       <c r="M40" s="182"/>
       <c r="N40" s="183"/>
       <c r="O40" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P40" s="182"/>
       <c r="Q40" s="182"/>
@@ -4933,7 +4933,7 @@
       <c r="M41" s="182"/>
       <c r="N41" s="183"/>
       <c r="O41" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P41" s="182"/>
       <c r="Q41" s="182"/>
@@ -4968,7 +4968,7 @@
       <c r="M42" s="182"/>
       <c r="N42" s="183"/>
       <c r="O42" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P42" s="182"/>
       <c r="Q42" s="182"/>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="43" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="B43" s="126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="173">
         <f>input!I14</f>
@@ -5004,7 +5004,7 @@
       <c r="M43" s="182"/>
       <c r="N43" s="183"/>
       <c r="O43" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P43" s="182"/>
       <c r="Q43" s="182"/>
@@ -5014,10 +5014,10 @@
       <c r="U43" s="36"/>
     </row>
     <row r="44" spans="2:28" s="42" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B44" s="388" t="s">
+      <c r="B44" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="389"/>
+      <c r="C44" s="269"/>
       <c r="D44" s="97"/>
       <c r="E44" s="34"/>
       <c r="F44" s="97"/>
@@ -5032,7 +5032,7 @@
       <c r="M44" s="182"/>
       <c r="N44" s="183"/>
       <c r="O44" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P44" s="182"/>
       <c r="Q44" s="182"/>
@@ -5064,7 +5064,7 @@
       <c r="M45" s="182"/>
       <c r="N45" s="183"/>
       <c r="O45" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P45" s="182"/>
       <c r="Q45" s="182"/>
@@ -5092,7 +5092,7 @@
       <c r="M46" s="182"/>
       <c r="N46" s="183"/>
       <c r="O46" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P46" s="182"/>
       <c r="Q46" s="182"/>
@@ -5120,7 +5120,7 @@
       <c r="M47" s="182"/>
       <c r="N47" s="183"/>
       <c r="O47" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P47" s="182"/>
       <c r="Q47" s="182"/>
@@ -5154,7 +5154,7 @@
       <c r="M48" s="182"/>
       <c r="N48" s="183"/>
       <c r="O48" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P48" s="182"/>
       <c r="Q48" s="182"/>
@@ -5170,14 +5170,14 @@
       <c r="AB48" s="97"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="381" t="s">
+      <c r="B49" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="360" t="s">
+      <c r="C49" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="361"/>
-      <c r="E49" s="362"/>
+      <c r="D49" s="234"/>
+      <c r="E49" s="235"/>
       <c r="F49" s="34"/>
       <c r="G49" s="109">
         <v>34</v>
@@ -5190,7 +5190,7 @@
       <c r="M49" s="182"/>
       <c r="N49" s="183"/>
       <c r="O49" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P49" s="182"/>
       <c r="Q49" s="182"/>
@@ -5203,7 +5203,7 @@
       <c r="Y49" s="34"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="382"/>
+      <c r="B50" s="232"/>
       <c r="C50" s="189" t="s">
         <v>92</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="M50" s="182"/>
       <c r="N50" s="183"/>
       <c r="O50" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P50" s="182"/>
       <c r="Q50" s="182"/>
@@ -5256,7 +5256,7 @@
       <c r="M51" s="182"/>
       <c r="N51" s="183"/>
       <c r="O51" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P51" s="182"/>
       <c r="Q51" s="182"/>
@@ -5287,7 +5287,7 @@
       <c r="M52" s="182"/>
       <c r="N52" s="183"/>
       <c r="O52" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P52" s="182"/>
       <c r="Q52" s="182"/>
@@ -5300,14 +5300,14 @@
       <c r="Y52" s="34"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="381" t="s">
+      <c r="B53" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="360" t="s">
+      <c r="C53" s="233" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="361"/>
-      <c r="E53" s="362"/>
+      <c r="D53" s="234"/>
+      <c r="E53" s="235"/>
       <c r="F53" s="34"/>
       <c r="G53" s="109">
         <v>38</v>
@@ -5320,7 +5320,7 @@
       <c r="M53" s="182"/>
       <c r="N53" s="183"/>
       <c r="O53" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P53" s="182"/>
       <c r="Q53" s="182"/>
@@ -5333,7 +5333,7 @@
       <c r="Y53" s="34"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="382"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="189" t="s">
         <v>92</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="M54" s="182"/>
       <c r="N54" s="183"/>
       <c r="O54" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P54" s="182"/>
       <c r="Q54" s="182"/>
@@ -5386,7 +5386,7 @@
       <c r="M55" s="182"/>
       <c r="N55" s="183"/>
       <c r="O55" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P55" s="182"/>
       <c r="Q55" s="182"/>
@@ -5417,7 +5417,7 @@
       <c r="M56" s="182"/>
       <c r="N56" s="183"/>
       <c r="O56" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P56" s="182"/>
       <c r="Q56" s="182"/>
@@ -5430,12 +5430,12 @@
       <c r="Y56" s="34"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="235" t="s">
+      <c r="B57" s="270" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="390"/>
-      <c r="D57" s="358"/>
-      <c r="E57" s="359"/>
+      <c r="C57" s="271"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="279"/>
       <c r="F57" s="34"/>
       <c r="G57" s="109">
         <v>42</v>
@@ -5448,7 +5448,7 @@
       <c r="M57" s="182"/>
       <c r="N57" s="183"/>
       <c r="O57" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P57" s="182"/>
       <c r="Q57" s="182"/>
@@ -5461,12 +5461,12 @@
       <c r="Y57" s="34"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="233" t="s">
+      <c r="B58" s="272" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="352"/>
-      <c r="D58" s="353"/>
-      <c r="E58" s="354"/>
+      <c r="C58" s="273"/>
+      <c r="D58" s="274"/>
+      <c r="E58" s="275"/>
       <c r="F58" s="34"/>
       <c r="G58" s="109">
         <v>43</v>
@@ -5479,7 +5479,7 @@
       <c r="M58" s="182"/>
       <c r="N58" s="183"/>
       <c r="O58" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P58" s="182"/>
       <c r="Q58" s="182"/>
@@ -5492,13 +5492,13 @@
       <c r="Y58" s="34"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="369" t="str">
+      <c r="B59" s="246" t="str">
         <f>"Lưu ý: " &amp;input!D39</f>
         <v xml:space="preserve">Lưu ý: </v>
       </c>
-      <c r="C59" s="370"/>
-      <c r="D59" s="370"/>
-      <c r="E59" s="371"/>
+      <c r="C59" s="247"/>
+      <c r="D59" s="247"/>
+      <c r="E59" s="248"/>
       <c r="F59" s="34"/>
       <c r="G59" s="109">
         <v>44</v>
@@ -5511,7 +5511,7 @@
       <c r="M59" s="182"/>
       <c r="N59" s="183"/>
       <c r="O59" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P59" s="182"/>
       <c r="Q59" s="182"/>
@@ -5524,10 +5524,10 @@
       <c r="Y59" s="34"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="372"/>
-      <c r="C60" s="373"/>
-      <c r="D60" s="373"/>
-      <c r="E60" s="374"/>
+      <c r="B60" s="249"/>
+      <c r="C60" s="250"/>
+      <c r="D60" s="250"/>
+      <c r="E60" s="251"/>
       <c r="F60" s="34"/>
       <c r="G60" s="109">
         <v>45</v>
@@ -5540,7 +5540,7 @@
       <c r="M60" s="182"/>
       <c r="N60" s="183"/>
       <c r="O60" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P60" s="182"/>
       <c r="Q60" s="182"/>
@@ -5553,10 +5553,10 @@
       <c r="Y60" s="34"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="372"/>
-      <c r="C61" s="373"/>
-      <c r="D61" s="373"/>
-      <c r="E61" s="374"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="250"/>
+      <c r="D61" s="250"/>
+      <c r="E61" s="251"/>
       <c r="F61" s="34"/>
       <c r="G61" s="109">
         <v>46</v>
@@ -5569,7 +5569,7 @@
       <c r="M61" s="182"/>
       <c r="N61" s="183"/>
       <c r="O61" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P61" s="182"/>
       <c r="Q61" s="182"/>
@@ -5582,10 +5582,10 @@
       <c r="Y61" s="34"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="372"/>
-      <c r="C62" s="373"/>
-      <c r="D62" s="373"/>
-      <c r="E62" s="374"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="250"/>
+      <c r="D62" s="250"/>
+      <c r="E62" s="251"/>
       <c r="F62" s="34"/>
       <c r="G62" s="109">
         <v>47</v>
@@ -5598,7 +5598,7 @@
       <c r="M62" s="182"/>
       <c r="N62" s="183"/>
       <c r="O62" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P62" s="182"/>
       <c r="Q62" s="182"/>
@@ -5611,10 +5611,10 @@
       <c r="Y62" s="34"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="372"/>
-      <c r="C63" s="373"/>
-      <c r="D63" s="373"/>
-      <c r="E63" s="374"/>
+      <c r="B63" s="249"/>
+      <c r="C63" s="250"/>
+      <c r="D63" s="250"/>
+      <c r="E63" s="251"/>
       <c r="F63" s="34"/>
       <c r="G63" s="109">
         <v>48</v>
@@ -5627,7 +5627,7 @@
       <c r="M63" s="182"/>
       <c r="N63" s="183"/>
       <c r="O63" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P63" s="182"/>
       <c r="Q63" s="182"/>
@@ -5640,10 +5640,10 @@
       <c r="Y63" s="34"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="372"/>
-      <c r="C64" s="373"/>
-      <c r="D64" s="373"/>
-      <c r="E64" s="374"/>
+      <c r="B64" s="249"/>
+      <c r="C64" s="250"/>
+      <c r="D64" s="250"/>
+      <c r="E64" s="251"/>
       <c r="F64" s="194"/>
       <c r="G64" s="109">
         <v>49</v>
@@ -5656,7 +5656,7 @@
       <c r="M64" s="182"/>
       <c r="N64" s="183"/>
       <c r="O64" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P64" s="182"/>
       <c r="Q64" s="182"/>
@@ -5669,10 +5669,10 @@
       <c r="Y64" s="34"/>
     </row>
     <row r="65" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B65" s="372"/>
-      <c r="C65" s="373"/>
-      <c r="D65" s="373"/>
-      <c r="E65" s="374"/>
+      <c r="B65" s="249"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="250"/>
+      <c r="E65" s="251"/>
       <c r="F65" s="194"/>
       <c r="G65" s="109">
         <v>50</v>
@@ -5685,7 +5685,7 @@
       <c r="M65" s="182"/>
       <c r="N65" s="183"/>
       <c r="O65" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P65" s="182"/>
       <c r="Q65" s="182"/>
@@ -5698,10 +5698,10 @@
       <c r="Y65" s="34"/>
     </row>
     <row r="66" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B66" s="372"/>
-      <c r="C66" s="373"/>
-      <c r="D66" s="373"/>
-      <c r="E66" s="374"/>
+      <c r="B66" s="249"/>
+      <c r="C66" s="250"/>
+      <c r="D66" s="250"/>
+      <c r="E66" s="251"/>
       <c r="F66" s="194"/>
       <c r="G66" s="109">
         <v>51</v>
@@ -5714,7 +5714,7 @@
       <c r="M66" s="182"/>
       <c r="N66" s="183"/>
       <c r="O66" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P66" s="182"/>
       <c r="Q66" s="182"/>
@@ -5729,10 +5729,10 @@
       <c r="AA66" s="34"/>
     </row>
     <row r="67" spans="2:29" ht="35.1" customHeight="1">
-      <c r="B67" s="372"/>
-      <c r="C67" s="373"/>
-      <c r="D67" s="373"/>
-      <c r="E67" s="374"/>
+      <c r="B67" s="249"/>
+      <c r="C67" s="250"/>
+      <c r="D67" s="250"/>
+      <c r="E67" s="251"/>
       <c r="F67" s="94"/>
       <c r="G67" s="109">
         <v>52</v>
@@ -5745,7 +5745,7 @@
       <c r="M67" s="182"/>
       <c r="N67" s="183"/>
       <c r="O67" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P67" s="182"/>
       <c r="Q67" s="182"/>
@@ -5760,11 +5760,11 @@
       <c r="AA67" s="34"/>
     </row>
     <row r="68" spans="2:29" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="375"/>
-      <c r="C68" s="376"/>
-      <c r="D68" s="376"/>
-      <c r="E68" s="377"/>
-      <c r="F68" s="365"/>
+      <c r="B68" s="252"/>
+      <c r="C68" s="253"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="242"/>
       <c r="G68" s="109">
         <v>53</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="M68" s="182"/>
       <c r="N68" s="183"/>
       <c r="O68" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P68" s="182"/>
       <c r="Q68" s="182"/>
@@ -5795,15 +5795,15 @@
         <v>7</v>
       </c>
       <c r="C69" s="210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="211" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="366" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="365"/>
+        <v>131</v>
+      </c>
+      <c r="E69" s="243" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="242"/>
       <c r="G69" s="109">
         <v>54</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="M69" s="182"/>
       <c r="N69" s="183"/>
       <c r="O69" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P69" s="182"/>
       <c r="Q69" s="182"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C70" s="209"/>
       <c r="D70" s="212"/>
-      <c r="E70" s="367"/>
+      <c r="E70" s="244"/>
       <c r="F70" s="34"/>
       <c r="G70" s="109">
         <v>55</v>
@@ -5848,7 +5848,7 @@
       <c r="M70" s="182"/>
       <c r="N70" s="183"/>
       <c r="O70" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P70" s="182"/>
       <c r="Q70" s="182"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="C71" s="161"/>
       <c r="D71" s="213"/>
-      <c r="E71" s="367"/>
+      <c r="E71" s="244"/>
       <c r="F71" s="34"/>
       <c r="G71" s="109">
         <v>56</v>
@@ -5881,7 +5881,7 @@
       <c r="M71" s="182"/>
       <c r="N71" s="183"/>
       <c r="O71" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P71" s="182"/>
       <c r="Q71" s="182"/>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C72" s="161"/>
       <c r="D72" s="213"/>
-      <c r="E72" s="367"/>
+      <c r="E72" s="244"/>
       <c r="F72" s="34"/>
       <c r="G72" s="109">
         <v>57</v>
@@ -5914,7 +5914,7 @@
       <c r="M72" s="182"/>
       <c r="N72" s="183"/>
       <c r="O72" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P72" s="182"/>
       <c r="Q72" s="182"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="C73" s="161"/>
       <c r="D73" s="213"/>
-      <c r="E73" s="367"/>
+      <c r="E73" s="244"/>
       <c r="F73" s="34"/>
       <c r="G73" s="109">
         <v>58</v>
@@ -5947,7 +5947,7 @@
       <c r="M73" s="182"/>
       <c r="N73" s="183"/>
       <c r="O73" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P73" s="182"/>
       <c r="Q73" s="182"/>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="C74" s="161"/>
       <c r="D74" s="213"/>
-      <c r="E74" s="367"/>
+      <c r="E74" s="244"/>
       <c r="F74" s="34"/>
       <c r="G74" s="109">
         <v>59</v>
@@ -5980,7 +5980,7 @@
       <c r="M74" s="182"/>
       <c r="N74" s="183"/>
       <c r="O74" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P74" s="182"/>
       <c r="Q74" s="182"/>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="C75" s="161"/>
       <c r="D75" s="213"/>
-      <c r="E75" s="367"/>
+      <c r="E75" s="244"/>
       <c r="F75" s="34"/>
       <c r="G75" s="109">
         <v>60</v>
@@ -6013,7 +6013,7 @@
       <c r="M75" s="182"/>
       <c r="N75" s="183"/>
       <c r="O75" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P75" s="182"/>
       <c r="Q75" s="182"/>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C76" s="161"/>
       <c r="D76" s="213"/>
-      <c r="E76" s="367"/>
+      <c r="E76" s="244"/>
       <c r="F76" s="34"/>
       <c r="G76" s="109">
         <v>61</v>
@@ -6042,7 +6042,7 @@
       <c r="M76" s="182"/>
       <c r="N76" s="183"/>
       <c r="O76" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P76" s="182"/>
       <c r="Q76" s="182"/>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="C77" s="161"/>
       <c r="D77" s="213"/>
-      <c r="E77" s="367"/>
+      <c r="E77" s="244"/>
       <c r="F77" s="160"/>
       <c r="G77" s="109">
         <v>62</v>
@@ -6071,7 +6071,7 @@
       <c r="M77" s="182"/>
       <c r="N77" s="183"/>
       <c r="O77" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P77" s="182"/>
       <c r="Q77" s="182"/>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="C78" s="181"/>
       <c r="D78" s="214"/>
-      <c r="E78" s="367"/>
+      <c r="E78" s="244"/>
       <c r="F78" s="160"/>
       <c r="G78" s="109">
         <v>63</v>
@@ -6100,7 +6100,7 @@
       <c r="M78" s="182"/>
       <c r="N78" s="183"/>
       <c r="O78" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P78" s="182"/>
       <c r="Q78" s="182"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C79" s="207"/>
       <c r="D79" s="215"/>
-      <c r="E79" s="368"/>
+      <c r="E79" s="245"/>
       <c r="F79" s="218"/>
       <c r="G79" s="175">
         <v>64</v>
@@ -6129,7 +6129,7 @@
       <c r="M79" s="186"/>
       <c r="N79" s="191"/>
       <c r="O79" s="175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P79" s="186"/>
       <c r="Q79" s="186"/>
@@ -8169,19 +8169,58 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S10"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="N7:O10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F68:F69"/>
     <mergeCell ref="E69:E79"/>
     <mergeCell ref="B59:E68"/>
@@ -8198,61 +8237,22 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O14:P14"/>
     <mergeCell ref="C13:E14"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N7:O10"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8927,70 +8927,70 @@
     <row r="59" spans="2:4" ht="25.5">
       <c r="B59" s="222"/>
       <c r="C59" s="223" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="222"/>
     </row>
     <row r="60" spans="2:4" ht="25.5">
       <c r="B60" s="222"/>
       <c r="C60" s="223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" s="222"/>
     </row>
     <row r="61" spans="2:4" ht="25.5">
       <c r="B61" s="222"/>
       <c r="C61" s="223" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="222"/>
     </row>
     <row r="62" spans="2:4" ht="25.5">
       <c r="B62" s="222"/>
       <c r="C62" s="223" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" s="222"/>
     </row>
     <row r="63" spans="2:4" ht="25.5">
       <c r="B63" s="222"/>
       <c r="C63" s="223" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="222"/>
     </row>
     <row r="64" spans="2:4" ht="25.5">
       <c r="B64" s="222"/>
       <c r="C64" s="223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D64" s="222"/>
     </row>
     <row r="65" spans="2:4" ht="17.25" customHeight="1">
       <c r="B65" s="222"/>
       <c r="C65" s="223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="222"/>
     </row>
     <row r="66" spans="2:4" ht="17.25" customHeight="1">
       <c r="B66" s="222"/>
       <c r="C66" s="223" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="222"/>
     </row>
     <row r="67" spans="2:4" ht="25.5">
       <c r="B67" s="222"/>
       <c r="C67" s="223" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67" s="222"/>
     </row>
     <row r="68" spans="2:4" ht="25.5">
       <c r="B68" s="222"/>
       <c r="C68" s="223" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D68" s="222"/>
     </row>
